--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="employee" sheetId="1" r:id="rId1"/>
@@ -486,9 +486,6 @@
     <t>city</t>
   </si>
   <si>
-    <t>iscompany</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -976,6 +973,9 @@
   </si>
   <si>
     <t>Степан</t>
+  </si>
+  <si>
+    <t>is_company</t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -4204,8 +4204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4224,7 +4224,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -4242,7 +4242,7 @@
         <v>153</v>
       </c>
       <c r="H1" t="s">
-        <v>154</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -4250,22 +4250,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E2" s="11">
         <v>71630296157</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -4277,22 +4277,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E3" s="11">
         <v>73267350621</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -4304,22 +4304,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E4" s="11">
         <v>75978393625</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -4331,22 +4331,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E5" s="11">
         <v>74829713988</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -4358,22 +4358,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E6" s="11">
         <v>79108041405</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -4385,22 +4385,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E7" s="11">
         <v>71243613915</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -4412,22 +4412,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E8" s="11">
         <v>79139246644</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -4439,22 +4439,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E9" s="11">
         <v>71057391347</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -4466,22 +4466,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E10" s="11">
         <v>73213624504</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -4493,22 +4493,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E11" s="11">
         <v>78084360348</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -4520,22 +4520,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E12" s="11">
         <v>75729201909</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -4547,22 +4547,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E13" s="11">
         <v>70950635092</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -4574,22 +4574,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E14" s="11">
         <v>77379647841</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -4601,22 +4601,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E15" s="11">
         <v>70315132283</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -4628,22 +4628,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C16" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E16" s="11">
         <v>70186634505</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -4655,22 +4655,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E17" s="11">
         <v>74967335509</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -4682,22 +4682,22 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E18" s="11">
         <v>70942910428</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -4709,22 +4709,22 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E19" s="11">
         <v>75147685831</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -4736,22 +4736,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E20" s="11">
         <v>70893739136</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -4763,22 +4763,22 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E21" s="11">
         <v>72622745842</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -4790,22 +4790,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E22" s="11">
         <v>78490494126</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -4817,22 +4817,22 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C23" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E23" s="11">
         <v>70782591827</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -4844,22 +4844,22 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C24" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E24" s="11">
         <v>72190848823</v>
       </c>
       <c r="F24" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -4871,22 +4871,22 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E25" s="11">
         <v>79239784113</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -4898,22 +4898,22 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E26" s="11">
         <v>70802537445</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -4925,22 +4925,22 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C27" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E27" s="11">
         <v>77957878848</v>
       </c>
       <c r="F27" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -4952,22 +4952,22 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E28" s="11">
         <v>74822932117</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -4979,22 +4979,22 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E29" s="11">
         <v>78042951121</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G29" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -5006,22 +5006,22 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E30" s="11">
         <v>78201532369</v>
       </c>
       <c r="F30" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -5033,22 +5033,22 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E31" s="11">
         <v>75544709197</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -5060,22 +5060,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E32" s="11">
         <v>77909632740</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -5087,22 +5087,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E33" s="11">
         <v>71352599760</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -5120,16 +5120,16 @@
         <v>38</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E34" s="11">
         <v>73655026498</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -5141,22 +5141,22 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E35" s="11">
         <v>72716215735</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -5168,22 +5168,22 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E36" s="11">
         <v>75340739888</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -5195,22 +5195,22 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E37" s="11">
         <v>70155828137</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -5222,22 +5222,22 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E38" s="11">
         <v>75080769343</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -5249,22 +5249,22 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E39" s="11">
         <v>70891334848</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -5276,22 +5276,22 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C40" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E40" s="11">
         <v>78047276109</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -5303,22 +5303,22 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E41" s="11">
         <v>77961495233</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -5330,22 +5330,22 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E42" s="11">
         <v>77008815489</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -5363,16 +5363,16 @@
         <v>19</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E43" s="11">
         <v>74394488819</v>
       </c>
       <c r="F43" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -5390,16 +5390,16 @@
         <v>16</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E44" s="11">
         <v>78181566663</v>
       </c>
       <c r="F44" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -5411,22 +5411,22 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E45" s="10">
         <v>72150959188</v>
       </c>
       <c r="F45" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -5438,22 +5438,22 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C46" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E46" s="10">
         <v>78205576859</v>
       </c>
       <c r="F46" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -5465,22 +5465,22 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E47" s="10">
         <v>70623656222</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -5492,22 +5492,22 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C48" t="s">
         <v>35</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E48" s="10">
         <v>79072163870</v>
       </c>
       <c r="F48" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -5519,22 +5519,22 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C49" t="s">
         <v>22</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E49" s="10">
         <v>79349244368</v>
       </c>
       <c r="F49" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G49" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -5546,22 +5546,22 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E50" s="10">
         <v>75766614184</v>
       </c>
       <c r="F50" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5573,22 +5573,22 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C51" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E51" s="10">
         <v>75401348016</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5600,22 +5600,22 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C52" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E52" s="10">
         <v>75240730061</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5627,22 +5627,22 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E53" s="10">
         <v>70207632208</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5654,22 +5654,22 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E54" s="10">
         <v>77109605415</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5681,22 +5681,22 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C55" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E55" s="10">
         <v>78387832084</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -5708,22 +5708,22 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C56" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E56" s="10">
         <v>74440230847</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -5735,22 +5735,22 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C57" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E57" s="10">
         <v>74769266651</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5762,22 +5762,22 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E58" s="10">
         <v>71178567247</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5789,22 +5789,22 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C59" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E59" s="10">
         <v>77658087514</v>
       </c>
       <c r="F59" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5816,22 +5816,22 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E60" s="10">
         <v>71108345582</v>
       </c>
       <c r="F60" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5876,25 +5876,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" t="s">
         <v>271</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>272</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>273</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>274</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>275</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>276</v>
-      </c>
-      <c r="H1" t="s">
-        <v>277</v>
       </c>
       <c r="I1" t="s">
         <v>55</v>
